--- a/results/[12_moderate_climate]_#_inv_capacity.xlsx
+++ b/results/[12_moderate_climate]_#_inv_capacity.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03997389657971578</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01020647543582354</v>
+        <v>0.003041639999999998</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1284234556393298</v>
+        <v>0.3192021974358237</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374994</v>
+        <v>0.2494892361374987</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4583310946131086</v>
+        <v>0.3425375850000001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.17921952</v>
+        <v>0.5264838000000002</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04084164</v>
+        <v>0.074078775</v>
       </c>
       <c r="N2" t="n">
-        <v>4.26167284388813</v>
+        <v>11.48276724557358</v>
       </c>
       <c r="O2" t="n">
-        <v>3.257499239853646</v>
+        <v>3.165850632917435</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1784073151238305</v>
+        <v>0.01269103052680951</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.03782856521265217</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3445269131620844</v>
+        <v>0.1995122964266774</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3514064324917677</v>
+        <v>0.4358172464383578</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8344818000000003</v>
+        <v>0.0495198899999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1314610528951233</v>
+        <v>0.04272847500000002</v>
       </c>
       <c r="N2" t="n">
-        <v>8.422584421111779</v>
+        <v>4.791772732874055</v>
       </c>
       <c r="O2" t="n">
-        <v>4.164224950042666</v>
+        <v>2.043739180225848</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2085575835091054</v>
+        <v>0.07897063915663666</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>0.02351531447219858</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7670181768945687</v>
+        <v>0.1529221346202301</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1.559252771326169</v>
+        <v>0.4168164135616428</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.63704706</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2724637321048767</v>
+        <v>0.04503457499999998</v>
       </c>
       <c r="N2" t="n">
-        <v>15.92044261922012</v>
+        <v>7.208983614552512</v>
       </c>
       <c r="O2" t="n">
-        <v>16.15485977026807</v>
+        <v>4.493642959409812</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_inv_capacity.xlsx
+++ b/results/[12_moderate_climate]_#_inv_capacity.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003041639999999998</v>
+        <v>0.002269897435823648</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3192021974358237</v>
+        <v>0.3191563207764054</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3425375850000001</v>
+        <v>0.3412040122747214</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5264838000000002</v>
+        <v>0.5256036900000001</v>
       </c>
       <c r="M2" t="n">
-        <v>0.074078775</v>
+        <v>0.07430661880348029</v>
       </c>
       <c r="N2" t="n">
-        <v>11.48276724557358</v>
+        <v>11.5903253386221</v>
       </c>
       <c r="O2" t="n">
-        <v>3.165850632917435</v>
+        <v>3.093707044758613</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.01269103052680951</v>
+        <v>0.006578532693934032</v>
       </c>
       <c r="B2" t="n">
-        <v>0.03782856521265217</v>
+        <v>0.0581238</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1995122964266774</v>
+        <v>0.3304135492235945</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4358172464383578</v>
+        <v>0.5856753215803109</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0495198899999999</v>
+        <v>0.1881759299999999</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04272847500000002</v>
+        <v>0.07332068119651973</v>
       </c>
       <c r="N2" t="n">
-        <v>4.791772732874055</v>
+        <v>8.092351482587798</v>
       </c>
       <c r="O2" t="n">
-        <v>2.043739180225848</v>
+        <v>3.347862294350149</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.07897063915663666</v>
+        <v>0.08815316193520684</v>
       </c>
       <c r="B2" t="n">
-        <v>0.02351531447219858</v>
+        <v>0.02186100000000002</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1529221346202301</v>
+        <v>0.1406309873331282</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4168164135616428</v>
+        <v>0.395620046908193</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04503457499999998</v>
+        <v>0.04415174999999996</v>
       </c>
       <c r="N2" t="n">
-        <v>7.208983614552512</v>
+        <v>7.773198087410442</v>
       </c>
       <c r="O2" t="n">
-        <v>4.493642959409812</v>
+        <v>4.898127034979207</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_inv_capacity.xlsx
+++ b/results/[12_moderate_climate]_#_inv_capacity.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.03997389657971578</v>
+        <v>0.18287985961339</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01020647543582354</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>0.6050374569751706</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1284234556393298</v>
+        <v>0.31259354256</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2648549559049627</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2494892361374994</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.06192510224457037</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4583310946131086</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.17921952</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.04084164</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4.26167284388813</v>
+        <v>6.50168986101973</v>
       </c>
       <c r="O2" t="n">
-        <v>3.257499239853646</v>
+        <v>3.028165258496957</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.1784073151238305</v>
+        <v>0.2074611181509338</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.955878963906223</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.3445269131620844</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.2509461418731349</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1254330808554296</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3514064324917677</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.8344818000000003</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1314610528951233</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.422584421111779</v>
+        <v>22.5225417699286</v>
       </c>
       <c r="O2" t="n">
-        <v>4.164224950042666</v>
+        <v>5.981680028781788</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.2085575835091054</v>
+        <v>0.8664661383891059</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.348833650704393</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7670181768945687</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.04927038289623842</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.1135635499099996</v>
       </c>
       <c r="I2" t="n">
-        <v>1.559252771326169</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -836,16 +836,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.63704706</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.2724637321048767</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>15.92044261922012</v>
+        <v>23.81181573089172</v>
       </c>
       <c r="O2" t="n">
-        <v>16.15485977026807</v>
+        <v>6.557239035220912</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[12_moderate_climate]_#_inv_capacity.xlsx
+++ b/results/[12_moderate_climate]_#_inv_capacity.xlsx
@@ -559,7 +559,7 @@
         <v>6.50168986101973</v>
       </c>
       <c r="O2" t="n">
-        <v>3.028165258496957</v>
+        <v>3.028165258496959</v>
       </c>
     </row>
   </sheetData>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>22.5225417699286</v>
+        <v>22.52254176992873</v>
       </c>
       <c r="O2" t="n">
-        <v>5.981680028781788</v>
+        <v>5.981680028781787</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.8664661383891059</v>
+        <v>0.8664661383891057</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.1135635499099996</v>
+        <v>0.113563549909999</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>23.81181573089172</v>
+        <v>23.8118157308917</v>
       </c>
       <c r="O2" t="n">
-        <v>6.557239035220912</v>
+        <v>6.557239035220933</v>
       </c>
     </row>
   </sheetData>

--- a/results/[12_moderate_climate]_#_inv_capacity.xlsx
+++ b/results/[12_moderate_climate]_#_inv_capacity.xlsx
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.006578532693934032</v>
+        <v>0.00657853269393422</v>
       </c>
       <c r="B2" t="n">
         <v>0.0581238</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.5856753215803109</v>
+        <v>0.585675321580311</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0.07332068119651973</v>
       </c>
       <c r="N2" t="n">
-        <v>8.092351482587798</v>
+        <v>8.092351482587777</v>
       </c>
       <c r="O2" t="n">
-        <v>3.347862294350149</v>
+        <v>3.347862294350146</v>
       </c>
     </row>
   </sheetData>
@@ -803,7 +803,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.08815316193520684</v>
+        <v>0.08815316193520785</v>
       </c>
       <c r="B2" t="n">
         <v>0.02186100000000002</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1406309873331282</v>
+        <v>0.1406309873331277</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.395620046908193</v>
+        <v>0.395620046908204</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0.04415174999999996</v>
       </c>
       <c r="N2" t="n">
-        <v>7.773198087410442</v>
+        <v>7.773198087410417</v>
       </c>
       <c r="O2" t="n">
-        <v>4.898127034979207</v>
+        <v>4.898127034978996</v>
       </c>
     </row>
   </sheetData>
